--- a/Task_11/test_11-2.xlsx
+++ b/Task_11/test_11-2.xlsx
@@ -401,221 +401,221 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Nadezhda Proreshkina</t>
+          <t>Klavdiya Shuseva</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gennadiy Chelystkin</t>
+          <t>Vladislav Latskov</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Klara Dubova</t>
+          <t>Kirill Nolskiy</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Violetta Pododedova</t>
+          <t>Elena Tarashkova</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nadezhda Simoyanova</t>
+          <t>Grigoriy Tennikov</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dmitriy Peterukov</t>
+          <t>Vadim Pliksin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Liza Polygalova</t>
+          <t>Stanislav Klepin</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anna Leksunina</t>
+          <t>Nadezhda Bbusyatskaya</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kira Fertukova</t>
+          <t>Marina Nemchipova</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tamara Lipunova</t>
+          <t>Eva Trefimova</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
